--- a/users_list.xlsx
+++ b/users_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,9 +436,40 @@
         <v>Active</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Xusan</v>
+      </c>
+      <c r="B3">
+        <v>1753566525</v>
+      </c>
+      <c r="C3" t="str">
+        <v>+998770411222</v>
+      </c>
+      <c r="D3" t="str">
+        <v>user</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Xusan</v>
+      </c>
+      <c r="B4">
+        <v>1753566525</v>
+      </c>
+      <c r="D4" t="str">
+        <v>request_contact</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Active</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users_list.xlsx
+++ b/users_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,23 +453,9 @@
         <v>Active</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Xusan</v>
-      </c>
-      <c r="B4">
-        <v>1753566525</v>
-      </c>
-      <c r="D4" t="str">
-        <v>request_contact</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Active</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users_list.xlsx
+++ b/users_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,24 +438,41 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Xusan</v>
+        <v>Даврон</v>
       </c>
       <c r="B3">
-        <v>1753566525</v>
+        <v>1410999961</v>
       </c>
       <c r="C3" t="str">
-        <v>+998770411222</v>
+        <v>998330074440</v>
       </c>
       <c r="D3" t="str">
         <v>user</v>
       </c>
       <c r="E3" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Xusan</v>
+      </c>
+      <c r="B4">
+        <v>1753566525</v>
+      </c>
+      <c r="C4" t="str">
+        <v>+998770411222</v>
+      </c>
+      <c r="D4" t="str">
+        <v>user</v>
+      </c>
+      <c r="E4" t="str">
         <v>Active</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>